--- a/util/docs.xlsx
+++ b/util/docs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817EF2E6-9E91-48CB-B315-923D87929921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3877FC-55BB-4B49-96CC-6496B0730091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction format" sheetId="2" r:id="rId1"/>
@@ -2293,7 +2293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2721,37 +2721,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2760,16 +2772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2777,6 +2780,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2814,72 +2883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2919,6 +2922,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2937,64 +2994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3433,49 +3432,49 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156" t="s">
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="156"/>
-      <c r="N6" s="157" t="s">
+      <c r="M6" s="159"/>
+      <c r="N6" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="162" t="s">
+      <c r="O6" s="157"/>
+      <c r="P6" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="157" t="s">
+      <c r="Q6" s="162"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="158"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="156" t="s">
+      <c r="T6" s="156"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="156"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="156"/>
-      <c r="AJ6" s="156"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="159"/>
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="159"/>
+      <c r="AE6" s="159"/>
+      <c r="AF6" s="159"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="159"/>
+      <c r="AI6" s="159"/>
+      <c r="AJ6" s="159"/>
       <c r="AK6" s="160"/>
     </row>
     <row r="7" spans="3:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,55 +3589,55 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156" t="s">
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="156"/>
-      <c r="N10" s="157" t="s">
+      <c r="M10" s="159"/>
+      <c r="N10" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="157" t="s">
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="161"/>
+      <c r="S10" s="157"/>
       <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="157" t="s">
+      <c r="U10" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="158"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="157" t="s">
+      <c r="V10" s="156"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="157" t="s">
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="156" t="s">
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="156"/>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="156"/>
+      <c r="AE10" s="159"/>
+      <c r="AF10" s="159"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="159"/>
+      <c r="AJ10" s="159"/>
       <c r="AK10" s="160"/>
     </row>
     <row r="11" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3753,53 +3752,53 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157" t="s">
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="161"/>
-      <c r="N14" s="157" t="s">
+      <c r="M14" s="157"/>
+      <c r="N14" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="158"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="161"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="157"/>
       <c r="T14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="157" t="s">
+      <c r="U14" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="158"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="157" t="s">
+      <c r="V14" s="156"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="157" t="s">
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="158"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="156" t="s">
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="156"/>
-      <c r="AH14" s="156"/>
-      <c r="AI14" s="156"/>
-      <c r="AJ14" s="156"/>
+      <c r="AE14" s="159"/>
+      <c r="AF14" s="159"/>
+      <c r="AG14" s="159"/>
+      <c r="AH14" s="159"/>
+      <c r="AI14" s="159"/>
+      <c r="AJ14" s="159"/>
       <c r="AK14" s="160"/>
     </row>
     <row r="15" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3914,47 +3913,47 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="155" t="s">
+      <c r="F18" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156" t="s">
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="156"/>
-      <c r="N18" s="157" t="s">
+      <c r="M18" s="159"/>
+      <c r="N18" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="157" t="s">
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="158"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="156" t="s">
+      <c r="T18" s="156"/>
+      <c r="U18" s="157"/>
+      <c r="V18" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="156"/>
-      <c r="AH18" s="156"/>
-      <c r="AI18" s="156"/>
-      <c r="AJ18" s="156"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="159"/>
+      <c r="AA18" s="159"/>
+      <c r="AB18" s="159"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="159"/>
+      <c r="AE18" s="159"/>
+      <c r="AF18" s="159"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="159"/>
+      <c r="AJ18" s="159"/>
       <c r="AK18" s="160"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
@@ -4069,56 +4068,56 @@
       <c r="E22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="155" t="s">
+      <c r="F22" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156" t="s">
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157" t="s">
+      <c r="M22" s="159"/>
+      <c r="N22" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="161"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="157"/>
       <c r="S22" s="2">
         <v>1</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="157" t="s">
+      <c r="U22" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="158"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="157" t="s">
+      <c r="V22" s="156"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="157" t="s">
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="157" t="s">
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158"/>
-      <c r="AJ22" s="158"/>
-      <c r="AK22" s="159"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="156"/>
+      <c r="AH22" s="156"/>
+      <c r="AI22" s="156"/>
+      <c r="AJ22" s="156"/>
+      <c r="AK22" s="164"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
@@ -4229,42 +4228,42 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="155" t="s">
+      <c r="F26" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="157" t="s">
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="158"/>
-      <c r="AK26" s="159"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="156"/>
+      <c r="AH26" s="156"/>
+      <c r="AI26" s="156"/>
+      <c r="AJ26" s="156"/>
+      <c r="AK26" s="164"/>
     </row>
     <row r="27" spans="2:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4383,25 +4382,6 @@
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="V6:AK6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:AK26"/>
     <mergeCell ref="AD14:AK14"/>
@@ -4418,6 +4398,25 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="V6:AK6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4428,7 +4427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D65BD74-8BFB-4C53-82FC-D7128D5DB752}">
   <dimension ref="B3:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4447,10 +4446,10 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="169"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
@@ -4471,10 +4470,10 @@
       <c r="B5" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4498,10 +4497,10 @@
       <c r="B6" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="167"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4525,10 +4524,10 @@
       <c r="B7" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="167"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="7" t="s">
         <v>355</v>
       </c>
@@ -4552,10 +4551,10 @@
       <c r="B8" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="167"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="7" t="s">
         <v>251</v>
       </c>
@@ -4579,10 +4578,10 @@
       <c r="B9" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="167"/>
+      <c r="D9" s="171"/>
       <c r="E9" s="7" t="s">
         <v>358</v>
       </c>
@@ -4606,10 +4605,10 @@
       <c r="B10" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="167"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="7" t="s">
         <v>252</v>
       </c>
@@ -4633,10 +4632,10 @@
       <c r="B11" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="7" t="s">
         <v>359</v>
       </c>
@@ -4660,10 +4659,10 @@
       <c r="B12" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="171"/>
       <c r="E12" s="7" t="s">
         <v>361</v>
       </c>
@@ -4687,10 +4686,10 @@
       <c r="B13" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="7" t="s">
         <v>253</v>
       </c>
@@ -4715,10 +4714,10 @@
       <c r="B14" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="7" t="s">
         <v>254</v>
       </c>
@@ -4742,10 +4741,10 @@
       <c r="B15" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="7" t="s">
         <v>255</v>
       </c>
@@ -4770,10 +4769,10 @@
       <c r="B16" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="7" t="s">
         <v>256</v>
       </c>
@@ -4797,10 +4796,10 @@
       <c r="B17" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="170" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="7" t="s">
         <v>257</v>
       </c>
@@ -4824,10 +4823,10 @@
       <c r="B18" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C18" s="166" t="s">
+      <c r="C18" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="7" t="s">
         <v>258</v>
       </c>
@@ -4851,10 +4850,10 @@
       <c r="B19" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="166" t="s">
+      <c r="C19" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="7" t="s">
         <v>356</v>
       </c>
@@ -4878,10 +4877,10 @@
       <c r="B20" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="173"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="9" t="s">
         <v>357</v>
       </c>
@@ -4925,10 +4924,10 @@
       <c r="C22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="172" t="s">
         <v>360</v>
       </c>
-      <c r="E22" s="165"/>
+      <c r="E22" s="172"/>
       <c r="G22" s="21" t="s">
         <v>381</v>
       </c>
@@ -4946,14 +4945,14 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="C23" s="245" t="s">
+      <c r="C23" s="165" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
       <c r="G23" s="21" t="s">
         <v>382</v>
       </c>
@@ -5193,6 +5192,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -5209,9 +5211,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5233,41 +5232,41 @@
   <sheetData>
     <row r="1" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="192" t="s">
+      <c r="E2" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="X2" s="174" t="s">
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="191"/>
+      <c r="X2" s="197" t="s">
         <v>162</v>
       </c>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="176"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="199"/>
     </row>
     <row r="3" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="80">
@@ -5404,49 +5403,49 @@
       <c r="T4" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="X4" s="177" t="s">
+      <c r="X4" s="200" t="s">
         <v>304</v>
       </c>
-      <c r="Y4" s="179" t="s">
+      <c r="Y4" s="202" t="s">
         <v>307</v>
       </c>
-      <c r="Z4" s="179" t="s">
+      <c r="Z4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AA4" s="183" t="s">
+      <c r="AA4" s="206" t="s">
         <v>308</v>
       </c>
-      <c r="AB4" s="179" t="s">
+      <c r="AB4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AC4" s="183" t="s">
+      <c r="AC4" s="206" t="s">
         <v>308</v>
       </c>
-      <c r="AD4" s="183" t="s">
+      <c r="AD4" s="206" t="s">
         <v>308</v>
       </c>
-      <c r="AE4" s="179" t="s">
+      <c r="AE4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AF4" s="179" t="s">
+      <c r="AF4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AG4" s="179" t="s">
+      <c r="AG4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AH4" s="179" t="s">
+      <c r="AH4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="179" t="s">
+      <c r="AI4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AJ4" s="179" t="s">
+      <c r="AJ4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AK4" s="179" t="s">
+      <c r="AK4" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="AL4" s="181" t="s">
+      <c r="AL4" s="204" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5490,21 +5489,21 @@
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="180"/>
-      <c r="AG5" s="180"/>
-      <c r="AH5" s="180"/>
-      <c r="AI5" s="180"/>
-      <c r="AJ5" s="180"/>
-      <c r="AK5" s="180"/>
-      <c r="AL5" s="182"/>
+      <c r="X5" s="201"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="207"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="207"/>
+      <c r="AD5" s="208"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="205"/>
     </row>
     <row r="6" spans="4:38" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="34">
@@ -5580,34 +5579,34 @@
     </row>
     <row r="8" spans="4:38" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:38" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="196" t="s">
+      <c r="E9" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="197"/>
-      <c r="G9" s="198" t="s">
+      <c r="F9" s="193"/>
+      <c r="G9" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="198"/>
-      <c r="I9" s="199" t="s">
+      <c r="H9" s="194"/>
+      <c r="I9" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="199"/>
-      <c r="K9" s="200" t="s">
+      <c r="J9" s="195"/>
+      <c r="K9" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="200"/>
-      <c r="M9" s="188" t="s">
+      <c r="L9" s="196"/>
+      <c r="M9" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="189"/>
-      <c r="O9" s="190" t="s">
+      <c r="N9" s="185"/>
+      <c r="O9" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="186" t="s">
+      <c r="P9" s="187"/>
+      <c r="Q9" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="R9" s="187"/>
+      <c r="R9" s="183"/>
     </row>
     <row r="10" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6037,42 +6036,29 @@
       <c r="K16" s="134"/>
     </row>
     <row r="17" spans="5:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="204" t="s">
+      <c r="E17" s="178" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="205"/>
-      <c r="G17" s="206" t="s">
+      <c r="F17" s="179"/>
+      <c r="G17" s="180" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="206"/>
-      <c r="I17" s="207" t="s">
+      <c r="H17" s="180"/>
+      <c r="I17" s="181" t="s">
         <v>326</v>
       </c>
-      <c r="J17" s="207"/>
-      <c r="K17" s="203" t="s">
+      <c r="J17" s="181"/>
+      <c r="K17" s="177" t="s">
         <v>328</v>
       </c>
-      <c r="L17" s="203"/>
-      <c r="M17" s="201" t="s">
+      <c r="L17" s="177"/>
+      <c r="M17" s="175" t="s">
         <v>327</v>
       </c>
-      <c r="N17" s="202"/>
+      <c r="N17" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="X2:AL2"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -6089,6 +6075,19 @@
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6171,12 +6170,12 @@
       <c r="O4" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="T4" s="211" t="s">
+      <c r="T4" s="212" t="s">
         <v>265</v>
       </c>
-      <c r="U4" s="212"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
+      <c r="W4" s="214"/>
     </row>
     <row r="5" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="44">
@@ -6207,11 +6206,11 @@
       <c r="T5" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="U5" s="214" t="s">
+      <c r="U5" s="215" t="s">
         <v>267</v>
       </c>
-      <c r="V5" s="212"/>
-      <c r="W5" s="213"/>
+      <c r="V5" s="213"/>
+      <c r="W5" s="214"/>
     </row>
     <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C6" s="44">
@@ -6244,11 +6243,11 @@
       <c r="T6" s="99">
         <v>0</v>
       </c>
-      <c r="U6" s="215" t="s">
+      <c r="U6" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="V6" s="216"/>
-      <c r="W6" s="217"/>
+      <c r="V6" s="217"/>
+      <c r="W6" s="218"/>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" s="44">
@@ -6279,11 +6278,11 @@
       <c r="T7" s="100">
         <v>1</v>
       </c>
-      <c r="U7" s="218" t="s">
+      <c r="U7" s="219" t="s">
         <v>269</v>
       </c>
-      <c r="V7" s="219"/>
-      <c r="W7" s="220"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="221"/>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="44">
@@ -6316,11 +6315,11 @@
       <c r="T8" s="100">
         <v>2</v>
       </c>
-      <c r="U8" s="218" t="s">
+      <c r="U8" s="219" t="s">
         <v>269</v>
       </c>
-      <c r="V8" s="219"/>
-      <c r="W8" s="220"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="221"/>
     </row>
     <row r="9" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="44">
@@ -6353,11 +6352,11 @@
       <c r="T9" s="101">
         <v>3</v>
       </c>
-      <c r="U9" s="208" t="s">
+      <c r="U9" s="209" t="s">
         <v>269</v>
       </c>
-      <c r="V9" s="209"/>
-      <c r="W9" s="210"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="211"/>
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C10" s="44">
@@ -6528,7 +6527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2FB75C-9059-4E84-8AA1-9090181B59E4}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6546,31 +6545,31 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="233" t="s">
+      <c r="G3" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="222" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="224"/>
       <c r="G4" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="234" t="s">
         <v>273</v>
       </c>
-      <c r="I4" s="232"/>
-      <c r="J4" s="231" t="s">
+      <c r="I4" s="235"/>
+      <c r="J4" s="234" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="232"/>
+      <c r="K4" s="235"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="114" t="s">
@@ -6585,31 +6584,31 @@
       <c r="G5" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="244" t="s">
+      <c r="H5" s="229" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="217"/>
-      <c r="J5" s="237" t="s">
+      <c r="I5" s="218"/>
+      <c r="J5" s="239" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="217"/>
+      <c r="K5" s="218"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="240" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="244" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="226"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="245"/>
       <c r="G6" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="236" t="s">
+      <c r="H6" s="228" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="220"/>
+      <c r="I6" s="221"/>
       <c r="J6" s="109" t="s">
         <v>287</v>
       </c>
@@ -6618,50 +6617,50 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="222"/>
-      <c r="C7" s="219" t="s">
+      <c r="B7" s="241"/>
+      <c r="C7" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="221"/>
       <c r="G7" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="H7" s="236" t="s">
+      <c r="H7" s="228" t="s">
         <v>297</v>
       </c>
-      <c r="I7" s="220"/>
-      <c r="J7" s="236" t="s">
+      <c r="I7" s="221"/>
+      <c r="J7" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="K7" s="220"/>
+      <c r="K7" s="221"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="222"/>
-      <c r="C8" s="219" t="s">
+      <c r="B8" s="241"/>
+      <c r="C8" s="220" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="220"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="221"/>
       <c r="G8" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="242" t="s">
+      <c r="H8" s="226" t="s">
         <v>289</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="236" t="s">
+      <c r="I8" s="227"/>
+      <c r="J8" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="220"/>
+      <c r="K8" s="221"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="223"/>
-      <c r="C9" s="209" t="s">
+      <c r="B9" s="242"/>
+      <c r="C9" s="210" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="211"/>
       <c r="G9" s="106" t="s">
         <v>280</v>
       </c>
@@ -6671,23 +6670,23 @@
       <c r="I9" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="J9" s="236" t="s">
+      <c r="J9" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="K9" s="220"/>
+      <c r="K9" s="221"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="241" t="s">
+      <c r="H10" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="210"/>
-      <c r="J10" s="224" t="s">
+      <c r="I10" s="211"/>
+      <c r="J10" s="243" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="210"/>
+      <c r="K10" s="211"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6711,27 +6710,28 @@
       <c r="G13" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="H13" s="229" t="s">
+      <c r="H13" s="232" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="230"/>
+      <c r="I13" s="233"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="227" t="s">
+      <c r="H14" s="230" t="s">
         <v>288</v>
       </c>
-      <c r="I14" s="228"/>
+      <c r="I14" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H4:I4"/>
@@ -6742,12 +6742,11 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/util/docs.xlsx
+++ b/util/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3877FC-55BB-4B49-96CC-6496B0730091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B63C02-8157-4D91-A0AA-AA29204BD5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction format" sheetId="2" r:id="rId1"/>
@@ -2751,6 +2751,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2764,12 +2770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4446,10 +4446,10 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
@@ -4470,10 +4470,10 @@
       <c r="B5" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4497,10 +4497,10 @@
       <c r="B6" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="171"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4524,10 +4524,10 @@
       <c r="B7" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="171"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="7" t="s">
         <v>355</v>
       </c>
@@ -4551,10 +4551,10 @@
       <c r="B8" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="171"/>
+      <c r="D8" s="166"/>
       <c r="E8" s="7" t="s">
         <v>251</v>
       </c>
@@ -4578,10 +4578,10 @@
       <c r="B9" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="171"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="7" t="s">
         <v>358</v>
       </c>
@@ -4605,10 +4605,10 @@
       <c r="B10" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="171"/>
+      <c r="D10" s="166"/>
       <c r="E10" s="7" t="s">
         <v>252</v>
       </c>
@@ -4632,10 +4632,10 @@
       <c r="B11" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="171"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="7" t="s">
         <v>359</v>
       </c>
@@ -4659,10 +4659,10 @@
       <c r="B12" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="166"/>
       <c r="E12" s="7" t="s">
         <v>361</v>
       </c>
@@ -4686,10 +4686,10 @@
       <c r="B13" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="7" t="s">
         <v>253</v>
       </c>
@@ -4714,10 +4714,10 @@
       <c r="B14" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="7" t="s">
         <v>254</v>
       </c>
@@ -4741,10 +4741,10 @@
       <c r="B15" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="171"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="7" t="s">
         <v>255</v>
       </c>
@@ -4769,10 +4769,10 @@
       <c r="B16" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="7" t="s">
         <v>256</v>
       </c>
@@ -4796,10 +4796,10 @@
       <c r="B17" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="C17" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="171"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="7" t="s">
         <v>257</v>
       </c>
@@ -4823,10 +4823,10 @@
       <c r="B18" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="171"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="7" t="s">
         <v>258</v>
       </c>
@@ -4850,10 +4850,10 @@
       <c r="B19" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="171"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="7" t="s">
         <v>356</v>
       </c>
@@ -4948,11 +4948,11 @@
       <c r="B23" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="167" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
       <c r="G23" s="21" t="s">
         <v>382</v>
       </c>
@@ -5192,8 +5192,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C4:D4"/>
@@ -5211,6 +5209,8 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5221,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3D4C0B-D305-42E3-A494-0FDBD834ABB7}">
   <dimension ref="D1:AL17"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6527,7 +6527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2FB75C-9059-4E84-8AA1-9090181B59E4}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/util/docs.xlsx
+++ b/util/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B63C02-8157-4D91-A0AA-AA29204BD5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0DA91-3343-4426-ADC1-15882290A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction format" sheetId="2" r:id="rId1"/>
@@ -1028,13 +1028,6 @@
 OF</t>
   </si>
   <si>
-    <t>[SI]
-INC, DEC, NEG
-MADD, MSUB,
-MADC, MSBB,
-LDIV</t>
-  </si>
-  <si>
     <t>LDIV</t>
   </si>
   <si>
@@ -1343,6 +1336,14 @@
   </si>
   <si>
     <t>0x1F</t>
+  </si>
+  <si>
+    <t>[SI]
+INC, DEC, NEG
+MADD, MSUB,
+MADC, MSBB,
+LDIV,
+BAA, ABA</t>
   </si>
 </sst>
 </file>
@@ -2721,24 +2722,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2746,9 +2750,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2781,6 +2782,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2802,87 +2884,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2922,6 +2923,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2940,58 +2992,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3310,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010DB54F-0064-4558-AEAA-353B181D2777}">
   <dimension ref="B5:AK43"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -3432,49 +3433,49 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159" t="s">
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="159"/>
-      <c r="N6" s="155" t="s">
+      <c r="M6" s="156"/>
+      <c r="N6" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="157"/>
-      <c r="P6" s="161" t="s">
+      <c r="O6" s="161"/>
+      <c r="P6" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="155" t="s">
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="156"/>
-      <c r="U6" s="157"/>
-      <c r="V6" s="159" t="s">
+      <c r="T6" s="158"/>
+      <c r="U6" s="161"/>
+      <c r="V6" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
       <c r="AK6" s="160"/>
     </row>
     <row r="7" spans="3:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,55 +3590,55 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159" t="s">
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="159"/>
-      <c r="N10" s="155" t="s">
+      <c r="M10" s="156"/>
+      <c r="N10" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="155" t="s">
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="157"/>
+      <c r="S10" s="161"/>
       <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="155" t="s">
+      <c r="U10" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="156"/>
-      <c r="W10" s="157"/>
-      <c r="X10" s="155" t="s">
+      <c r="V10" s="158"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="157"/>
-      <c r="AA10" s="155" t="s">
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="159" t="s">
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="161"/>
+      <c r="AD10" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="159"/>
-      <c r="AI10" s="159"/>
-      <c r="AJ10" s="159"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="156"/>
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="156"/>
       <c r="AK10" s="160"/>
     </row>
     <row r="11" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,53 +3753,53 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="155" t="s">
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="157"/>
-      <c r="N14" s="155" t="s">
+      <c r="M14" s="161"/>
+      <c r="N14" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="157"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="161"/>
       <c r="T14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="155" t="s">
+      <c r="U14" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="156"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="155" t="s">
+      <c r="V14" s="158"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="157"/>
-      <c r="AA14" s="155" t="s">
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="157"/>
-      <c r="AD14" s="159" t="s">
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="159"/>
-      <c r="AG14" s="159"/>
-      <c r="AH14" s="159"/>
-      <c r="AI14" s="159"/>
-      <c r="AJ14" s="159"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="156"/>
+      <c r="AH14" s="156"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="156"/>
       <c r="AK14" s="160"/>
     </row>
     <row r="15" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,47 +3914,47 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="158" t="s">
+      <c r="F18" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159" t="s">
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="159"/>
-      <c r="N18" s="155" t="s">
+      <c r="M18" s="156"/>
+      <c r="N18" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="157"/>
-      <c r="S18" s="155" t="s">
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="156"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="159" t="s">
+      <c r="T18" s="158"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="159"/>
-      <c r="AB18" s="159"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="159"/>
-      <c r="AE18" s="159"/>
-      <c r="AF18" s="159"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="159"/>
-      <c r="AJ18" s="159"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="156"/>
+      <c r="AH18" s="156"/>
+      <c r="AI18" s="156"/>
+      <c r="AJ18" s="156"/>
       <c r="AK18" s="160"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
@@ -4068,56 +4069,56 @@
       <c r="E22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="158" t="s">
+      <c r="F22" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159" t="s">
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="159"/>
-      <c r="N22" s="155" t="s">
+      <c r="M22" s="156"/>
+      <c r="N22" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="157"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="161"/>
       <c r="S22" s="2">
         <v>1</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="155" t="s">
+      <c r="U22" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="156"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="155" t="s">
+      <c r="V22" s="158"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="155" t="s">
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="155" t="s">
+      <c r="AB22" s="158"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="156"/>
-      <c r="AI22" s="156"/>
-      <c r="AJ22" s="156"/>
-      <c r="AK22" s="164"/>
+      <c r="AE22" s="158"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="158"/>
+      <c r="AJ22" s="158"/>
+      <c r="AK22" s="159"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
@@ -4228,42 +4229,42 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="158" t="s">
+      <c r="F26" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="155" t="s">
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="156"/>
-      <c r="AH26" s="156"/>
-      <c r="AI26" s="156"/>
-      <c r="AJ26" s="156"/>
-      <c r="AK26" s="164"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="158"/>
+      <c r="AD26" s="158"/>
+      <c r="AE26" s="158"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="158"/>
+      <c r="AJ26" s="158"/>
+      <c r="AK26" s="159"/>
     </row>
     <row r="27" spans="2:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4382,6 +4383,25 @@
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="V6:AK6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:AK26"/>
     <mergeCell ref="AD14:AK14"/>
@@ -4398,25 +4418,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="V6:AK6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4468,7 +4469,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" s="170" t="s">
         <v>1</v>
@@ -4478,7 +4479,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>56</v>
@@ -4490,12 +4491,12 @@
         <v>58</v>
       </c>
       <c r="K5" s="121" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" s="165" t="s">
         <v>16</v>
@@ -4505,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>59</v>
@@ -4522,17 +4523,17 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="165" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="166"/>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>60</v>
@@ -4549,7 +4550,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" s="165" t="s">
         <v>39</v>
@@ -4559,7 +4560,7 @@
         <v>251</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>61</v>
@@ -4571,22 +4572,22 @@
         <v>123</v>
       </c>
       <c r="K8" s="85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" s="165" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="166"/>
       <c r="E9" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>62</v>
@@ -4598,12 +4599,12 @@
         <v>124</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" s="165" t="s">
         <v>41</v>
@@ -4613,7 +4614,7 @@
         <v>252</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>63</v>
@@ -4625,22 +4626,22 @@
         <v>125</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" s="165" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="166"/>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>64</v>
@@ -4652,22 +4653,22 @@
         <v>126</v>
       </c>
       <c r="K11" s="85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" s="165" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="166"/>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>66</v>
@@ -4679,12 +4680,12 @@
         <v>127</v>
       </c>
       <c r="K12" s="85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" s="165" t="s">
         <v>110</v>
@@ -4694,7 +4695,7 @@
         <v>253</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>65</v>
@@ -4706,13 +4707,13 @@
         <v>128</v>
       </c>
       <c r="K13" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14" s="165" t="s">
         <v>111</v>
@@ -4722,7 +4723,7 @@
         <v>254</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>68</v>
@@ -4734,12 +4735,12 @@
         <v>129</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="165" t="s">
         <v>103</v>
@@ -4749,7 +4750,7 @@
         <v>255</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>67</v>
@@ -4761,13 +4762,13 @@
         <v>130</v>
       </c>
       <c r="K15" s="85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" s="165" t="s">
         <v>104</v>
@@ -4777,7 +4778,7 @@
         <v>256</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>69</v>
@@ -4794,7 +4795,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C17" s="165" t="s">
         <v>105</v>
@@ -4804,7 +4805,7 @@
         <v>257</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>70</v>
@@ -4821,7 +4822,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18" s="165" t="s">
         <v>106</v>
@@ -4831,7 +4832,7 @@
         <v>258</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>72</v>
@@ -4848,17 +4849,17 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="165" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="166"/>
       <c r="E19" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>71</v>
@@ -4875,17 +4876,17 @@
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C20" s="173" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="174"/>
       <c r="E20" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>114</v>
@@ -4902,7 +4903,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>115</v>
@@ -4925,11 +4926,11 @@
         <v>141</v>
       </c>
       <c r="D22" s="172" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E22" s="172"/>
       <c r="G22" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>116</v>
@@ -4946,15 +4947,15 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="167" t="s">
         <v>362</v>
-      </c>
-      <c r="C23" s="167" t="s">
-        <v>363</v>
       </c>
       <c r="D23" s="167"/>
       <c r="E23" s="167"/>
       <c r="G23" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>117</v>
@@ -4971,7 +4972,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G24" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>135</v>
@@ -4983,12 +4984,12 @@
         <v>241</v>
       </c>
       <c r="K24" s="120" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G25" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>238</v>
@@ -5000,12 +5001,12 @@
         <v>242</v>
       </c>
       <c r="K25" s="120" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G26" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>136</v>
@@ -5017,12 +5018,12 @@
         <v>138</v>
       </c>
       <c r="K26" s="120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G27" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>243</v>
@@ -5034,12 +5035,12 @@
         <v>245</v>
       </c>
       <c r="K27" s="120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G28" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>120</v>
@@ -5051,12 +5052,12 @@
         <v>249</v>
       </c>
       <c r="K28" s="120" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G29" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>246</v>
@@ -5068,12 +5069,12 @@
         <v>250</v>
       </c>
       <c r="K29" s="120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G30" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>87</v>
@@ -5090,7 +5091,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G31" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>224</v>
@@ -5107,7 +5108,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G32" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>225</v>
@@ -5124,7 +5125,7 @@
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>201</v>
@@ -5141,7 +5142,7 @@
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>203</v>
@@ -5158,7 +5159,7 @@
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G35" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>226</v>
@@ -5175,7 +5176,7 @@
     </row>
     <row r="36" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>227</v>
@@ -5192,6 +5193,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C4:D4"/>
@@ -5208,9 +5212,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5221,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3D4C0B-D305-42E3-A494-0FDBD834ABB7}">
   <dimension ref="D1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5232,41 +5233,41 @@
   <sheetData>
     <row r="1" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="188" t="s">
+      <c r="E2" s="193" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
-      <c r="X2" s="197" t="s">
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196"/>
+      <c r="X2" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="198"/>
-      <c r="AJ2" s="198"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="176"/>
+      <c r="AJ2" s="176"/>
+      <c r="AK2" s="176"/>
+      <c r="AL2" s="177"/>
     </row>
     <row r="3" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="80">
@@ -5336,7 +5337,7 @@
         <v>306</v>
       </c>
       <c r="AD3" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE3" s="41" t="s">
         <v>89</v>
@@ -5371,11 +5372,11 @@
         <v>214</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G4" s="76"/>
       <c r="H4" s="75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I4" s="77" t="s">
         <v>221</v>
@@ -5383,69 +5384,69 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M4" s="74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N4" s="147"/>
       <c r="O4" s="76"/>
       <c r="P4" s="75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="77" t="s">
         <v>220</v>
       </c>
       <c r="R4" s="76"/>
       <c r="S4" s="117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T4" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="X4" s="200" t="s">
+        <v>329</v>
+      </c>
+      <c r="X4" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="Y4" s="202" t="s">
+      <c r="Y4" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="Z4" s="202" t="s">
+      <c r="Z4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AA4" s="206" t="s">
+      <c r="AA4" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="AB4" s="202" t="s">
+      <c r="AB4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AC4" s="206" t="s">
+      <c r="AC4" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="AD4" s="206" t="s">
+      <c r="AD4" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="AE4" s="202" t="s">
+      <c r="AE4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AF4" s="202" t="s">
+      <c r="AF4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AG4" s="202" t="s">
+      <c r="AG4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AH4" s="202" t="s">
+      <c r="AH4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AI4" s="202" t="s">
+      <c r="AI4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AJ4" s="202" t="s">
+      <c r="AJ4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AK4" s="202" t="s">
+      <c r="AK4" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="AL4" s="204" t="s">
+      <c r="AL4" s="182" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5462,10 +5463,10 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="36" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="71"/>
@@ -5473,7 +5474,7 @@
         <v>152</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O5" s="37" t="s">
         <v>301</v>
@@ -5489,37 +5490,37 @@
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
-      <c r="X5" s="201"/>
-      <c r="Y5" s="203"/>
-      <c r="Z5" s="203"/>
-      <c r="AA5" s="207"/>
-      <c r="AB5" s="203"/>
-      <c r="AC5" s="207"/>
-      <c r="AD5" s="208"/>
-      <c r="AE5" s="203"/>
-      <c r="AF5" s="203"/>
-      <c r="AG5" s="203"/>
-      <c r="AH5" s="203"/>
-      <c r="AI5" s="203"/>
-      <c r="AJ5" s="203"/>
-      <c r="AK5" s="203"/>
-      <c r="AL5" s="205"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="185"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="186"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="183"/>
     </row>
     <row r="6" spans="4:38" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="34">
         <v>2</v>
       </c>
       <c r="E6" s="144" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>217</v>
       </c>
       <c r="G6" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>340</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>341</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>153</v>
@@ -5528,10 +5529,10 @@
         <v>154</v>
       </c>
       <c r="K6" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="L6" s="118" t="s">
         <v>336</v>
-      </c>
-      <c r="L6" s="118" t="s">
-        <v>337</v>
       </c>
       <c r="M6" s="143"/>
       <c r="N6" s="29"/>
@@ -5547,10 +5548,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="70" t="s">
         <v>322</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>323</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>219</v>
@@ -5562,7 +5563,7 @@
         <v>216</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="72"/>
@@ -5579,34 +5580,34 @@
     </row>
     <row r="8" spans="4:38" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:38" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="192" t="s">
+      <c r="E9" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="194" t="s">
+      <c r="F9" s="198"/>
+      <c r="G9" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="194"/>
-      <c r="I9" s="195" t="s">
+      <c r="H9" s="199"/>
+      <c r="I9" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196" t="s">
+      <c r="J9" s="200"/>
+      <c r="K9" s="201" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="184" t="s">
+      <c r="L9" s="201"/>
+      <c r="M9" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="185"/>
-      <c r="O9" s="186" t="s">
+      <c r="N9" s="190"/>
+      <c r="O9" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="182" t="s">
+      <c r="P9" s="192"/>
+      <c r="Q9" s="187" t="s">
         <v>149</v>
       </c>
-      <c r="R9" s="183"/>
+      <c r="R9" s="188"/>
     </row>
     <row r="10" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5789,7 +5790,8 @@
 INC, DEC, NEG
 MADD, MSUB,
 MADC, MSBB,
-LDIV</v>
+LDIV,
+BAA, ABA</v>
       </c>
       <c r="J13" s="138" t="str">
         <f t="shared" si="1"/>
@@ -6036,29 +6038,42 @@
       <c r="K16" s="134"/>
     </row>
     <row r="17" spans="5:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="178" t="s">
+      <c r="E17" s="205" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="206"/>
+      <c r="G17" s="207" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="180" t="s">
+      <c r="H17" s="207"/>
+      <c r="I17" s="208" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="180"/>
-      <c r="I17" s="181" t="s">
+      <c r="J17" s="208"/>
+      <c r="K17" s="204" t="s">
+        <v>327</v>
+      </c>
+      <c r="L17" s="204"/>
+      <c r="M17" s="202" t="s">
         <v>326</v>
       </c>
-      <c r="J17" s="181"/>
-      <c r="K17" s="177" t="s">
-        <v>328</v>
-      </c>
-      <c r="L17" s="177"/>
-      <c r="M17" s="175" t="s">
-        <v>327</v>
-      </c>
-      <c r="N17" s="176"/>
+      <c r="N17" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="X2:AL2"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -6075,19 +6090,6 @@
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6310,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T8" s="100">
         <v>2</v>
@@ -6347,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T9" s="101">
         <v>3</v>
@@ -6428,10 +6430,10 @@
         <v>18</v>
       </c>
       <c r="J13" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="K13" s="150" t="s">
         <v>338</v>
-      </c>
-      <c r="K13" s="150" t="s">
-        <v>339</v>
       </c>
       <c r="N13" s="67">
         <v>9</v>
@@ -6440,13 +6442,13 @@
     </row>
     <row r="14" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I14" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="K14" s="49" t="s">
         <v>348</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>349</v>
       </c>
       <c r="N14" s="66">
         <v>10</v>
@@ -6545,31 +6547,31 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="236" t="s">
+      <c r="G3" s="234" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="239" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="224"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="241"/>
       <c r="G4" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="232" t="s">
         <v>273</v>
       </c>
-      <c r="I4" s="235"/>
-      <c r="J4" s="234" t="s">
+      <c r="I4" s="233"/>
+      <c r="J4" s="232" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="235"/>
+      <c r="K4" s="233"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="114" t="s">
@@ -6584,28 +6586,28 @@
       <c r="G5" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="229" t="s">
+      <c r="H5" s="245" t="s">
         <v>290</v>
       </c>
       <c r="I5" s="218"/>
-      <c r="J5" s="239" t="s">
+      <c r="J5" s="238" t="s">
         <v>287</v>
       </c>
       <c r="K5" s="218"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="222" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="244" t="s">
+      <c r="C6" s="226" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="245"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
       <c r="G6" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="228" t="s">
+      <c r="H6" s="237" t="s">
         <v>297</v>
       </c>
       <c r="I6" s="221"/>
@@ -6617,7 +6619,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="241"/>
+      <c r="B7" s="223"/>
       <c r="C7" s="220" t="s">
         <v>296</v>
       </c>
@@ -6626,17 +6628,17 @@
       <c r="G7" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="H7" s="228" t="s">
+      <c r="H7" s="237" t="s">
         <v>297</v>
       </c>
       <c r="I7" s="221"/>
-      <c r="J7" s="228" t="s">
+      <c r="J7" s="237" t="s">
         <v>287</v>
       </c>
       <c r="K7" s="221"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="241"/>
+      <c r="B8" s="223"/>
       <c r="C8" s="220" t="s">
         <v>294</v>
       </c>
@@ -6645,17 +6647,17 @@
       <c r="G8" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="226" t="s">
+      <c r="H8" s="243" t="s">
         <v>289</v>
       </c>
-      <c r="I8" s="227"/>
-      <c r="J8" s="228" t="s">
+      <c r="I8" s="244"/>
+      <c r="J8" s="237" t="s">
         <v>287</v>
       </c>
       <c r="K8" s="221"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="242"/>
+      <c r="B9" s="224"/>
       <c r="C9" s="210" t="s">
         <v>295</v>
       </c>
@@ -6670,7 +6672,7 @@
       <c r="I9" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="J9" s="228" t="s">
+      <c r="J9" s="237" t="s">
         <v>287</v>
       </c>
       <c r="K9" s="221"/>
@@ -6679,11 +6681,11 @@
       <c r="G10" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="225" t="s">
+      <c r="H10" s="242" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="211"/>
-      <c r="J10" s="243" t="s">
+      <c r="J10" s="225" t="s">
         <v>287</v>
       </c>
       <c r="K10" s="211"/>
@@ -6710,28 +6712,27 @@
       <c r="G13" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="H13" s="232" t="s">
+      <c r="H13" s="230" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="233"/>
+      <c r="I13" s="231"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="230" t="s">
+      <c r="H14" s="228" t="s">
         <v>288</v>
       </c>
-      <c r="I14" s="231"/>
+      <c r="I14" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H4:I4"/>
@@ -6742,11 +6743,12 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
